--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -521,6 +521,9 @@
       <c r="C11" t="str">
         <v>326_红继木_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -582,7 +585,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020102010555550</v>
+        <v>0201020105555530</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,9 +525,89 @@
         <v>30</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F16" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F18" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -585,7 +665,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201020105555530</v>
+        <v>0201020105555530105151030103015150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +604,269 @@
       <c r="A21" t="str">
         <v>3</v>
       </c>
+      <c r="C21" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>626_多丁黄言_undefined_undefined_undefinedundefined</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>4</v>
+      </c>
+      <c r="C26" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>575_迷你菊深粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>625_多丁紫蝴蝶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>5</v>
+      </c>
+      <c r="C34" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>6</v>
+      </c>
+      <c r="C39" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>7</v>
+      </c>
+      <c r="C45" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F49" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F50" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -665,7 +924,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201020105555530105151030103015150</v>
+        <v>0201020105555530105151030103015151515121010155510189151020571288119104135115530200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -863,6 +863,9 @@
         <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
 pink_Trachymene Coerulea_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -924,7 +927,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201020105555530105151030103015151515121010155510189151020571288119104135115530200</v>
+        <v>0201020105555530105151030103015151515121010155510189151020571288119104135115530201</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,12 +864,95 @@
 pink_Trachymene Coerulea_1bunch</v>
       </c>
       <c r="F51" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8</v>
+      </c>
+      <c r="C52" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>9</v>
+      </c>
+      <c r="C57" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -927,7 +1010,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201020105555530105151030103015151515121010155510189151020571288119104135115530201</v>
+        <v>020102010555553010515103010301515151512101015551018915102057128811910413511553020102053101020201550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -949,6 +949,9 @@
       <c r="C61" t="str">
         <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1010,7 +1013,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020102010555553010515103010301515151512101015551018915102057128811910413511553020102053101020201550</v>
+        <v>0201020105555530105151030103015151515121010155510189151020571288119104135115530201020531010202015510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -953,9 +953,81 @@
         <v>10</v>
       </c>
     </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>10</v>
+      </c>
+      <c r="C63" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>718_银莲白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>691_银莲紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>681_锦鲤橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F69" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L70"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1013,7 +1085,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201020105555530105151030103015151515121010155510189151020571288119104135115530201020531010202015510</v>
+        <v>02010201055555301051510301030151515151210101555101891510205712881191041351155302010205310102020155105105551015110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -1022,7 +1022,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -1022,7 +1022,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1022,12 +1022,86 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C70" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F71" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>354_桔叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>12</v>
+      </c>
+      <c r="C78" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L70"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L78"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1085,7 +1159,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02010201055555301051510301030151515151210101555101891510205712881191041351155302010205310102020155105105551015110</v>
+        <v>020102010555553010515103010301515151512101015551018915102057128811910413511553020102053101020201551051055510151110203020101715530</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -1161,6 +1161,9 @@
       <c r="G2" t="str">
         <v>020102010555553010515103010301515151512101015551018915102057128811910413511553020102053101020201551051055510151110203020101715530</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,56 +446,58 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F2" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="C3" t="str" xml:space="preserve">
-        <v xml:space="preserve">463_玉兰枝_magnolia flower
-white/purple_undefined_1bunch</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F3" t="str">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F4" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <v>2</v>
+      </c>
       <c r="C5" t="str">
-        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F5" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+        <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F6" t="str">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="str">
-        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F7" t="str">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F8" t="str">
         <v>5</v>
@@ -503,605 +505,117 @@
     </row>
     <row r="9">
       <c r="C9" t="str">
-        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F9" t="str">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <v>3</v>
+      </c>
       <c r="C10" t="str">
-        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+        <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
       </c>
       <c r="F10" t="str">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>326_红继木_undefined_undefined_1bunch</v>
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
       </c>
       <c r="F11" t="str">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>2</v>
-      </c>
       <c r="C12" t="str">
-        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F12" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
       </c>
       <c r="F13" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="str">
-        <v>328_卢荀草_undefined_undefined_1bunch</v>
+        <v>82_非洲菊绿 绿扣子_undefined_Gerbera L._20stems</v>
       </c>
       <c r="F14" t="str">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <v>4</v>
+      </c>
       <c r="C15" t="str">
-        <v>328_卢荀草_undefined_undefined_1bunch</v>
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
       </c>
       <c r="F15" t="str">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="str">
-        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
       </c>
       <c r="F16" t="str">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
       </c>
       <c r="F17" t="str">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
       <c r="F18" t="str">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="str">
-        <v>816_山里红_undefined_undefined_1bunch</v>
+        <v>730_蝴蝶洋牡丹奶油黄_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
       <c r="F19" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <v>5</v>
+      </c>
       <c r="C20" t="str">
-        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
       </c>
       <c r="F20" t="str">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>3</v>
-      </c>
       <c r="C21" t="str">
-        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F21" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="str">
-        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F22" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="str">
-        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F23" t="str">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="str">
-        <v>624_多丁白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F24" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="str">
-        <v>626_多丁黄言_undefined_undefined_undefinedundefined</v>
-      </c>
-      <c r="F25" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>4</v>
-      </c>
-      <c r="C26" t="str">
-        <v>574_迷你菊白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F26" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="str">
-        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F27" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" t="str">
-        <v>575_迷你菊深粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F28" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="str">
-        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F29" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="str">
-        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F30" t="str">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="str">
-        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F31" t="str">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F32" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="str">
-        <v>625_多丁紫蝴蝶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F33" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>5</v>
-      </c>
-      <c r="C34" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F34" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F35" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="str">
-        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F36" t="str">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="str">
-        <v>479_绿灵草_lepidium_undefined_1bunch</v>
-      </c>
-      <c r="F37" t="str">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v/>
-      </c>
-      <c r="C38" t="str">
-        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F38" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>6</v>
-      </c>
-      <c r="C39" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F39" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="str">
-        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F40" t="str">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="str">
-        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F41" t="str">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="str">
-        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F42" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F43" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="str">
-        <v>479_绿灵草_lepidium_undefined_1bunch</v>
-      </c>
-      <c r="F44" t="str">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>7</v>
-      </c>
-      <c r="C45" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F45" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="str">
-        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F46" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="str">
-        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
-      </c>
-      <c r="F47" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="str">
-        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F48" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="str">
-        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F49" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F50" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" xml:space="preserve">
-      <c r="C51" t="str" xml:space="preserve">
-        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
-pink_Trachymene Coerulea_1bunch</v>
-      </c>
-      <c r="F51" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>8</v>
-      </c>
-      <c r="C52" t="str">
-        <v>771_美洲茶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F52" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="str">
-        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F53" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="str">
-        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
-      </c>
-      <c r="F54" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="str">
-        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F55" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="str">
-        <v>797_维也纳大菊_undefined_undefined_5stems</v>
-      </c>
-      <c r="F56" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>9</v>
-      </c>
-      <c r="C57" t="str">
-        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
-      </c>
-      <c r="F57" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="str">
-        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
-      </c>
-      <c r="F58" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" t="str">
-        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
-      </c>
-      <c r="F59" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="str">
-        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
-      </c>
-      <c r="F60" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" t="str">
-        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
-      </c>
-      <c r="F61" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="str">
-        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
-      </c>
-      <c r="F62" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>10</v>
-      </c>
-      <c r="C63" t="str">
-        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F63" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="str">
-        <v>718_银莲白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F64" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="str">
-        <v>691_银莲紫_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F65" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="str">
-        <v>681_锦鲤橙_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F66" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" t="str">
-        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F67" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="str">
-        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F68" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" t="str">
-        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F69" t="str">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>11</v>
-      </c>
-      <c r="C70" t="str">
-        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
-      </c>
-      <c r="F70" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="C71" t="str">
-        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F71" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" t="str">
-        <v>83_布拉格_undefined_Gerbera L._10stems</v>
-      </c>
-      <c r="F72" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" t="str">
-        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
-      </c>
-      <c r="F73" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" xml:space="preserve">
-      <c r="C74" t="str" xml:space="preserve">
-        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
-pink_Trachymene Coerulea_1bunch</v>
-      </c>
-      <c r="F74" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="C75" t="str">
-        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
-      </c>
-      <c r="F75" t="str">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="C76" t="str">
-        <v>354_桔叶_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F76" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="C77" t="str">
-        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
-      </c>
-      <c r="F77" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>12</v>
-      </c>
-      <c r="C78" t="str">
-        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
-      </c>
-      <c r="F78" t="str">
-        <v>30</v>
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L78"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1159,10 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020102010555553010515103010301515151512101015551018915102057128811910413511553020102053101020201551051055510151110203020101715530</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>0357104111553060100204812318514200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -612,6 +612,9 @@
       <c r="C21" t="str">
         <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -673,7 +676,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0357104111553060100204812318514200</v>
+        <v>0357104111553060100204812318514203</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -613,7 +613,7 @@
         <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +676,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0357104111553060100204812318514203</v>
+        <v>03571041115530601002048123185142030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-5.xlsx
@@ -678,6 +678,9 @@
       <c r="G2" t="str">
         <v>03571041115530601002048123185142030</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
